--- a/Shared/Sources/excel_data/input_master_filled_24122025.xlsx
+++ b/Shared/Sources/excel_data/input_master_filled_24122025.xlsx
@@ -28139,8 +28139,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0e72e358fff385e948993b5140718f2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2e1edef662b1e8a4a57019bf45cf5f9" ns2:_="" ns3:_="">
     <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
     <xsd:import namespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
     <xsd:element name="properties">
@@ -28399,20 +28399,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90842D73-4EEC-418E-AA0E-AB1357A81A54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
-    <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB9DC99-0BF9-41C5-BEA3-F81557A17C6C}"/>
 </file>